--- a/Nado Game/gui_project/수용가감면세대 상세내역_20220512 강남데시앙파크.xlsx
+++ b/Nado Game/gui_project/수용가감면세대 상세내역_20220512 강남데시앙파크.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\과장\1 1 부과자료\2022년\202205월\수도감면자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B57B7D-3146-496D-BE25-C6E15E9744D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1140" windowWidth="21345" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="수용가 감면 내역(복지개별)" sheetId="1" r:id="rId1"/>
@@ -136,17 +135,16 @@
     <t>514-204</t>
   </si>
   <si>
+    <t>514동 804</t>
+  </si>
+  <si>
     <t>515-1002</t>
-  </si>
-  <si>
-    <t>514-804</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -549,7 +547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -642,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -892,7 +890,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -900,12 +898,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nado Game/gui_project/수용가감면세대 상세내역_20220512 강남데시앙파크.xlsx
+++ b/Nado Game/gui_project/수용가감면세대 상세내역_20220512 강남데시앙파크.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\gui_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46C0E1-9AC2-41BF-927F-7A7813527987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="12615" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수용가 감면 내역(복지개별)" sheetId="1" r:id="rId1"/>
@@ -135,16 +136,17 @@
     <t>514-204</t>
   </si>
   <si>
-    <t>514동 804</t>
-  </si>
-  <si>
     <t>515-1002</t>
+  </si>
+  <si>
+    <t>514-804</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -547,14 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
@@ -640,17 +642,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="46.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -890,7 +892,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -898,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Nado Game/gui_project/수용가감면세대 상세내역_20220512 강남데시앙파크.xlsx
+++ b/Nado Game/gui_project/수용가감면세대 상세내역_20220512 강남데시앙파크.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\gui_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46C0E1-9AC2-41BF-927F-7A7813527987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6101D1-48EE-4F22-A781-A19762DDEFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>509-601</t>
   </si>
   <si>
-    <t>509-904</t>
-  </si>
-  <si>
     <t>510-401</t>
   </si>
   <si>
@@ -140,6 +137,10 @@
   </si>
   <si>
     <t>514-804</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>509동 904</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +647,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -860,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -868,7 +869,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -876,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -884,7 +885,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -892,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -900,7 +901,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Nado Game/gui_project/수용가감면세대 상세내역_20220512 강남데시앙파크.xlsx
+++ b/Nado Game/gui_project/수용가감면세대 상세내역_20220512 강남데시앙파크.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\gui_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6101D1-48EE-4F22-A781-A19762DDEFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="수용가 감면 내역(복지개별)" sheetId="1" r:id="rId1"/>
@@ -124,6 +123,9 @@
     <t>509-601</t>
   </si>
   <si>
+    <t>509-904</t>
+  </si>
+  <si>
     <t>510-401</t>
   </si>
   <si>
@@ -133,21 +135,16 @@
     <t>514-204</t>
   </si>
   <si>
+    <t>514동 804</t>
+  </si>
+  <si>
     <t>515-1002</t>
-  </si>
-  <si>
-    <t>514-804</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>509동 904</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -550,14 +547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
@@ -643,17 +640,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="46.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -861,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -869,7 +866,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -877,7 +874,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -885,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -901,7 +898,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
